--- a/backend/web/reports/templates/template_works_today.xlsx
+++ b/backend/web/reports/templates/template_works_today.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB972C-A883-40A1-92D2-2FC012140ABF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -92,12 +93,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Merriweather"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Merriweather"/>
     </font>
@@ -111,13 +106,21 @@
       <name val="Merriweather"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Merriweather"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Merriweather"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Merriweather"/>
       <charset val="204"/>
     </font>
@@ -177,22 +180,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,11 +476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -492,21 +495,21 @@
     <col min="10" max="10" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6">
         <v>43271</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="25.5">
       <c r="A2" s="1" t="s">
@@ -540,17 +543,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+    <row r="3" spans="1:10" ht="18">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="3"/>
